--- a/Notulen.xlsx
+++ b/Notulen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="3"/>
@@ -11,13 +11,14 @@
     <sheet name="22 Juni" sheetId="1" r:id="rId2"/>
     <sheet name="23 Juni" sheetId="3" r:id="rId3"/>
     <sheet name="24 Juni" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
   <si>
     <t>MARKETING</t>
   </si>
@@ -316,8 +317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,9 +384,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,12 +391,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -477,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -511,6 +518,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,14 +694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
@@ -703,14 +711,14 @@
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="J1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -740,7 +748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -753,7 +761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -766,7 +774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -779,20 +787,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1">
-      <c r="A7" s="11">
+    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -803,7 +811,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
@@ -816,7 +824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
@@ -829,7 +837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
@@ -842,7 +850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
@@ -855,7 +863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>55</v>
       </c>
@@ -868,7 +876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
@@ -881,7 +889,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
@@ -894,7 +902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
@@ -907,7 +915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1">
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
@@ -920,7 +928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1">
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
@@ -933,7 +941,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1">
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>55</v>
       </c>
@@ -946,7 +954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1">
+    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
@@ -959,7 +967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1">
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -972,7 +980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1">
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -985,20 +993,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1">
-      <c r="A23" s="11">
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>9</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="J23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1037,12 +1045,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1058,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1102,7 +1110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1141,12 +1149,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1162,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1180,7 +1188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1222,12 +1230,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J43" s="1"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1235,7 +1243,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1264,7 +1272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1277,12 +1285,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J48" s="1"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1298,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1312,28 +1320,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="K1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1362,7 +1370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1386,7 +1394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1410,7 +1418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1471,28 +1479,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="K1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K2" s="3" t="s">
         <v>53</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1529,7 +1537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1"/>
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K1:M1"/>
@@ -1561,19 +1569,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1584,7 +1592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1595,31 +1603,40 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1627,31 +1644,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1659,7 +1685,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1667,7 +1693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1675,23 +1701,29 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1699,7 +1731,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1707,20 +1739,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1">
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>1</v>
       </c>
@@ -1728,7 +1763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="9" customFormat="1">
+    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>2</v>
       </c>
@@ -1736,7 +1771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1">
+    <row r="25" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>3</v>
       </c>
@@ -1744,7 +1779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1755,7 +1790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1766,7 +1801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1774,7 +1809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1782,7 +1817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1790,23 +1825,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="11" customFormat="1">
-      <c r="A31" s="11">
+    <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>9</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="11" customFormat="1">
-      <c r="A32" s="11">
+    <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>10</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1817,4 +1852,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notulen.xlsx
+++ b/Notulen.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>MARKETING</t>
   </si>
@@ -197,9 +197,6 @@
     <t>nilai rencana bayar di cetak spp belum masuk</t>
   </si>
   <si>
-    <t>kalau tanda jadi di cetak dimana?</t>
-  </si>
-  <si>
     <t>Pada text area alamat kasih keterangan 100 karakter</t>
   </si>
   <si>
@@ -269,12 +266,6 @@
     <t>penguncian saat distribusi spp belum ke reload</t>
   </si>
   <si>
-    <t>pada report daftar kwitnsi field penerimaan menjadi angsuran, nilai DPP, PPN</t>
-  </si>
-  <si>
-    <t>sorting report daftar kwitansi hanya periode saja</t>
-  </si>
-  <si>
     <t>pembuatan menu upload penerimaan VA dari bank (UTILITAS)</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>tampilan di download di detail angsuran, denda, lain-lain, total</t>
   </si>
   <si>
-    <t>tgl_spk, status spk yang dapat di edit di pengaturan spk</t>
-  </si>
-  <si>
     <t>di download tagihan buat popup untuk nambah tagihan dari kwitansi lain-lain + catatan</t>
   </si>
   <si>
@@ -312,6 +300,9 @@
   </si>
   <si>
     <t>upload stok via excel ditambah field virtual account (di tabel stok belum ada, buat dengan varchar 10)</t>
+  </si>
+  <si>
+    <t>buat menu gnerate VA</t>
   </si>
 </sst>
 </file>
@@ -327,24 +318,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -359,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,14 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,11 +683,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -732,7 +703,7 @@
         <v>51</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -787,18 +758,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="12"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -883,11 +854,11 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -993,18 +964,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1200,9 +1171,6 @@
       <c r="L40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M40" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1264,12 +1232,12 @@
         <v>41</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="M46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -1324,7 +1292,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,11 +1303,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1352,10 +1320,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1375,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
@@ -1462,12 +1430,12 @@
         <v>6</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1494,11 +1462,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K2" s="3" t="s">
@@ -1508,10 +1476,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1519,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
@@ -1531,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>54</v>
@@ -1542,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>54</v>
@@ -1553,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>54</v>
@@ -1570,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1597,10 +1565,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1608,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1619,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1630,10 +1598,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1641,7 +1609,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1649,10 +1620,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1660,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1671,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1682,7 +1653,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1690,7 +1664,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1698,7 +1675,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1706,10 +1686,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1717,10 +1697,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1728,7 +1708,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1736,7 +1719,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1744,10 +1730,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1755,28 +1741,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>90</v>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1801,20 +1796,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>92</v>
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1822,31 +1823,23 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+        <v>84</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>9</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>10</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Notulen.xlsx
+++ b/Notulen.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="16 Juni" sheetId="2" r:id="rId1"/>
     <sheet name="22 Juni" sheetId="1" r:id="rId2"/>
     <sheet name="23 Juni" sheetId="3" r:id="rId3"/>
     <sheet name="24 Juni" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="01 Juli" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
   <si>
     <t>MARKETING</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Pada text area alamat kasih keterangan 100 karakter</t>
   </si>
   <si>
-    <t>di database bintaro gk ada field</t>
-  </si>
-  <si>
     <t>belum jelas tentang upload VA</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
     <t>penguncian saat distribusi spp belum ke reload</t>
   </si>
   <si>
+    <t>pada report daftar kwitnsi field penerimaan menjadi angsuran, nilai DPP, PPN</t>
+  </si>
+  <si>
+    <t>sorting report daftar kwitansi hanya periode saja</t>
+  </si>
+  <si>
     <t>pembuatan menu upload penerimaan VA dari bank (UTILITAS)</t>
   </si>
   <si>
@@ -302,7 +305,94 @@
     <t>upload stok via excel ditambah field virtual account (di tabel stok belum ada, buat dengan varchar 10)</t>
   </si>
   <si>
-    <t>buat menu gnerate VA</t>
+    <t>menyesuaikan dengan template print SPP</t>
+  </si>
+  <si>
+    <t>EVALUASI DIREKSI</t>
+  </si>
+  <si>
+    <t>Sementara penerimaan VA dari bank disesuaikan saja</t>
+  </si>
+  <si>
+    <t>Identifikasi Collection</t>
+  </si>
+  <si>
+    <t>Tidak ada lagi proses identifikasi satu per satu transaksi yang masuk</t>
+  </si>
+  <si>
+    <t>Identifikasi dilakukan secara otomatis dengan mencocokkan nilai yang diberikan ke bank</t>
+  </si>
+  <si>
+    <t>Proses Identifikasi hanya menyetujui hasil pencocokkan data penagihan dengan pembayaran</t>
+  </si>
+  <si>
+    <t>Collection hanya memeriksa dan mengotorisasi transaksi yang sudah cocok</t>
+  </si>
+  <si>
+    <t>Pada saat mendownload data tagihan untuk ke bank, data tersebut disimpan untuk dicocokkan</t>
+  </si>
+  <si>
+    <t>Data yang disimpan berisi angsuran, denda, dan jenis pembayaran lain</t>
+  </si>
+  <si>
+    <t>Nomor virtual accuount generate berstruktur (2 = cluster, 2 = blok, 2 = nomor, 1 = jumlah penaglihan hak)</t>
+  </si>
+  <si>
+    <t>Pengalihan Hak</t>
+  </si>
+  <si>
+    <t>Pada saat proses pengalihan hak, data customer sebelumnya tersimpan di temp (history)</t>
+  </si>
+  <si>
+    <t>Saat proses pengalihan hak customer baru diberikan no VA baru dengan mengubah 1 digit paling belakang</t>
+  </si>
+  <si>
+    <t>TAMBAHAN EVALUASI</t>
+  </si>
+  <si>
+    <t>pas download nomor va tambah parameter unit bank</t>
+  </si>
+  <si>
+    <t>semua parameter menggunakan tampilan tab (seperti kwitansi)</t>
+  </si>
+  <si>
+    <t>generate VA ada parameter</t>
+  </si>
+  <si>
+    <t>penamaan di master tidak boleh sama (buat alert)</t>
+  </si>
+  <si>
+    <t>master sk buat sorting aktif dan tidak aktif</t>
+  </si>
+  <si>
+    <t>buat master baru buat jumlah bayar untuk pola bayar</t>
+  </si>
+  <si>
+    <t>di master collection, tab kwitansi hilangkan check box (col,keu)</t>
+  </si>
+  <si>
+    <t>ada menu upload untuk semua template</t>
+  </si>
+  <si>
+    <t>popup-popup di paskan agar tidak ada scroll bar</t>
+  </si>
+  <si>
+    <t>di dalam popup stock, keluarkan persentase faktor strategis nya</t>
+  </si>
+  <si>
+    <t>untuk di stok awal, saat popup tambah pilih lokasi order by lokasi dan tanggal</t>
+  </si>
+  <si>
+    <t>pada tambah stok awal luas tanah, luas bangunan, ppn tanah, ppn bangunan harus diisi dan class default nya MU = 3</t>
+  </si>
+  <si>
+    <t>upload penerimaan va dipotong 7 digit terakhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data gagal pada upload stok dan penerimaan va tampilkan di dalam popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
   </si>
 </sst>
 </file>
@@ -318,12 +408,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -338,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,9 +470,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,11 +807,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -703,7 +827,7 @@
         <v>51</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -964,16 +1088,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>9</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1237,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="M46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -1291,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,11 +1427,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1320,10 +1444,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1435,7 +1559,7 @@
         <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1462,11 +1586,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K2" s="3" t="s">
@@ -1476,10 +1600,10 @@
         <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1487,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
@@ -1499,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>54</v>
@@ -1510,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>54</v>
@@ -1521,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>54</v>
@@ -1540,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1565,10 +1689,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="N4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1587,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
+        <v>69</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1598,10 +1722,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1609,10 +1733,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1620,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1631,10 +1755,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1642,10 +1766,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1653,10 +1777,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1664,10 +1788,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1675,10 +1799,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1686,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1697,10 +1821,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1708,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1719,10 +1843,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1730,10 +1854,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1741,105 +1865,114 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="N23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>10</v>
+      <c r="N32" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1849,14 +1982,515 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>3</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>4</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>5</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>6</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>7</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>9</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>10</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>11</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>12</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>13</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>